--- a/DATA_goal/Junction_Flooding_45.xlsx
+++ b/DATA_goal/Junction_Flooding_45.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1690,110 +1690,6 @@
         <v>10.35</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>40750.78472222222</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>20.67</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>35.31</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>129.95</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>25.24</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>17.16</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>17.15</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>10.62</v>
-      </c>
-      <c r="AE12" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>31.88</v>
-      </c>
-      <c r="AG12" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="AH12" s="4" t="n">
-        <v>10.35</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DATA_goal/Junction_Flooding_45.xlsx
+++ b/DATA_goal/Junction_Flooding_45.xlsx
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>40750.71527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.88</v>
+        <v>0.59</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.94</v>
+        <v>0.19</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.36</v>
+        <v>0.14</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.49</v>
+        <v>0.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.49</v>
+        <v>0.25</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.8</v>
+        <v>2.58</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.51</v>
+        <v>0.55</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.3</v>
+        <v>0.33</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.8</v>
+        <v>0.28</v>
       </c>
       <c r="Y2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF2" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>2.55</v>
-      </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40750.72222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6.97</v>
+        <v>0.7</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.7</v>
+        <v>0.47</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>7.91</v>
+        <v>0.79</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.78</v>
+        <v>0.18</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.8</v>
+        <v>0.38</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.09</v>
+        <v>0.31</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.75</v>
+        <v>0.17</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>26.57</v>
+        <v>2.66</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.2</v>
+        <v>0.62</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.43</v>
+        <v>0.44</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="Y3" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD3" s="4" t="n">
         <v>0.29</v>
       </c>
-      <c r="Z3" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>2.88</v>
-      </c>
       <c r="AE3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.87</v>
+        <v>0.59</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.25</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40750.72916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.34</v>
+        <v>0.33</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.49</v>
+        <v>0.75</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.97</v>
+        <v>0.3</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>12.1</v>
+        <v>1.21</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.72</v>
+        <v>0.47</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.84</v>
+        <v>0.28</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.76</v>
+        <v>0.48</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.74</v>
+        <v>0.27</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>43.89</v>
+        <v>4.39</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.39</v>
+        <v>0.34</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.5</v>
+        <v>0.65</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.74</v>
+        <v>0.27</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.05</v>
+        <v>0.2</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.95</v>
+        <v>0.3</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.12</v>
+        <v>0.41</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>10.11</v>
+        <v>1.01</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.67</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40750.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.8</v>
+        <v>1.88</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.81</v>
+        <v>1.38</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>40.05</v>
+        <v>4.01</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>32.64</v>
+        <v>3.26</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.04</v>
+        <v>1.4</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>51.02</v>
+        <v>5.1</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>21.87</v>
+        <v>2.19</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.68</v>
+        <v>0.97</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.54</v>
+        <v>1.45</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.93</v>
+        <v>1.59</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.39</v>
+        <v>1.74</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.87</v>
+        <v>1.39</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.39</v>
+        <v>2.04</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.8</v>
+        <v>1.18</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>209.93</v>
+        <v>20.99</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>39.82</v>
+        <v>3.98</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>27.12</v>
+        <v>2.71</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.36</v>
+        <v>1.44</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.87</v>
+        <v>0.19</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.38</v>
+        <v>2.54</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.64</v>
+        <v>1.16</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.94</v>
+        <v>0.99</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.12</v>
+        <v>1.21</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.87</v>
+        <v>1.69</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>45.61</v>
+        <v>4.56</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>40750.74305555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>15.32</v>
+        <v>1.53</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>11.27</v>
+        <v>1.13</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>32.67</v>
+        <v>3.27</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>26.63</v>
+        <v>2.66</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>11.46</v>
+        <v>1.15</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>46.67</v>
+        <v>4.67</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>17.85</v>
+        <v>1.79</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>7.91</v>
+        <v>0.79</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>11.86</v>
+        <v>1.19</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>13</v>
+        <v>1.3</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>14.17</v>
+        <v>1.42</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>11.31</v>
+        <v>1.13</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>16.67</v>
+        <v>1.67</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>169.94</v>
+        <v>16.99</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>32.62</v>
+        <v>3.26</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>22.22</v>
+        <v>2.22</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>11.72</v>
+        <v>1.17</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>22.43</v>
+        <v>2.24</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>9.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>13.76</v>
+        <v>1.38</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>42.02</v>
+        <v>4.2</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>6.01</v>
+        <v>0.6</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>13.31</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>40750.75</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>10.18</v>
+        <v>1.02</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>29.49</v>
+        <v>2.95</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>24.07</v>
+        <v>2.41</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>10.37</v>
+        <v>1.04</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>42.32</v>
+        <v>4.23</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>16.14</v>
+        <v>1.61</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>7.15</v>
+        <v>0.72</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>10.73</v>
+        <v>1.07</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>11.74</v>
+        <v>1.17</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>12.77</v>
+        <v>1.28</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.38</v>
+        <v>0.34</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>10.23</v>
+        <v>1.02</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>15.06</v>
+        <v>1.51</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>152.79</v>
+        <v>15.28</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>29.46</v>
+        <v>2.95</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>9.84</v>
+        <v>0.98</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>20.06</v>
+        <v>2.01</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>10.58</v>
+        <v>1.06</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>20.24</v>
+        <v>2.02</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>7.35</v>
+        <v>0.73</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>8.93</v>
+        <v>0.89</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>12.42</v>
+        <v>1.24</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>38.03</v>
+        <v>3.8</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>5.43</v>
+        <v>0.54</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>12.04</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>40750.75694444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>1.87</v>
+        <v>0.19</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>5.42</v>
+        <v>0.54</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>4.22</v>
+        <v>0.42</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>1.71</v>
+        <v>0.17</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>13.32</v>
+        <v>1.33</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>2.79</v>
+        <v>0.28</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>1.25</v>
+        <v>0.13</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>1.78</v>
+        <v>0.18</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>2.1</v>
+        <v>0.21</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>2.82</v>
+        <v>0.28</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="S8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AE8" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="T8" s="4" t="n">
-        <v>21.28</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="AF8" s="4" t="n">
-        <v>12.21</v>
+        <v>1.22</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>40750.76388888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>4.35</v>
+        <v>0.43</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>1.35</v>
+        <v>0.13</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="S9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>15.47</v>
+        <v>1.55</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>4.28</v>
+        <v>0.43</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>2.99</v>
+        <v>0.3</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
       <c r="AE9" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AG9" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AF9" s="4" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.71</v>
-      </c>
       <c r="AH9" s="4" t="n">
-        <v>1.65</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>40750.77083333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>5.99</v>
+        <v>0.6</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>12.69</v>
+        <v>1.27</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>10.29</v>
+        <v>1.03</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>15.8</v>
+        <v>1.58</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>6.89</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>2.98</v>
+        <v>0.3</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>4.55</v>
+        <v>0.45</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>5.55</v>
+        <v>0.55</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>4.31</v>
+        <v>0.43</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>3.73</v>
+        <v>0.37</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>61.22</v>
+        <v>6.12</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>12.46</v>
+        <v>1.25</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>4.24</v>
+        <v>0.42</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>8.48</v>
+        <v>0.85</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>4.53</v>
+        <v>0.45</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>7.55</v>
+        <v>0.75</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>3.68</v>
+        <v>0.37</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>3.11</v>
+        <v>0.31</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>3.85</v>
+        <v>0.39</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>5.33</v>
+        <v>0.53</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>13.74</v>
+        <v>1.37</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>5.13</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_45.xlsx
+++ b/DATA_goal/Junction_Flooding_45.xlsx
@@ -444,19 +444,19 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
@@ -465,9 +465,9 @@
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -655,103 +655,103 @@
         <v>40751.04861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>4.89</v>
       </c>
-      <c r="U2" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.05555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.82</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.7</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.05</v>
+        <v>20.55</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.78</v>
+        <v>17.75</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.32</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.52</v>
+        <v>25.22</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.06</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.11</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.15</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.65</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.32</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.32</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.57</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.09</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.67</v>
+        <v>106.73</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.06</v>
+        <v>20.58</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.72</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.86</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.01</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.19</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.41</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.94</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.9</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.22</v>
+        <v>22.19</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.0625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.14</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1</v>
+        <v>10.03</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.8</v>
+        <v>27.99</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.37</v>
+        <v>23.66</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1</v>
+        <v>10.03</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.81</v>
+        <v>38.05</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.35</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.7</v>
+        <v>7.01</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.77</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.45</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.86</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.21</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1</v>
+        <v>10.01</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.44</v>
+        <v>14.43</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.35</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>14.69</v>
+        <v>146.94</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.81</v>
+        <v>28.09</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.17</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.89</v>
+        <v>18.94</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.34</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.96</v>
+        <v>19.64</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.85</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.94</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.2</v>
+        <v>12.02</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.42</v>
+        <v>34.18</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.54</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40751.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.23</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.6</v>
+        <v>25.96</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.19</v>
+        <v>21.85</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.72</v>
+        <v>37.18</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.29</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.52</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.93</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.56</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.1</v>
+        <v>11.02</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.3</v>
+        <v>2.99</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.4</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.75</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>13.56</v>
+        <v>135.56</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.61</v>
+        <v>26.08</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.76</v>
+        <v>17.63</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.86</v>
+        <v>18.64</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.34</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.23</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.73</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.11</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.35</v>
+        <v>33.49</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.1</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_45.xlsx
+++ b/DATA_goal/Junction_Flooding_45.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,52 +658,52 @@
         <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.93</v>
+        <v>4.926</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.074</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.44</v>
+        <v>9.442</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.41</v>
+        <v>3.413</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.19</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.53</v>
+        <v>4.526</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.1</v>
+        <v>2.102</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.54</v>
+        <v>4.543</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.17</v>
+        <v>5.171</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.454</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.77</v>
+        <v>4.766</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.485</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.21</v>
+        <v>1.205</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
@@ -712,46 +712,46 @@
         <v>48.94</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>9.632</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3</v>
+        <v>2.995</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.54</v>
+        <v>5.545</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.641</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.66</v>
+        <v>0.661</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.55</v>
+        <v>7.552</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.9</v>
+        <v>1.905</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.89</v>
+        <v>4.889</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.485</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.81</v>
+        <v>5.812</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.38</v>
+        <v>2.376</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="3">
@@ -765,43 +765,43 @@
         <v>7.7</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.708</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>20.55</v>
+        <v>20.546</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17.75</v>
+        <v>17.751</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.32</v>
+        <v>7.318</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>25.22</v>
+        <v>25.217</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.06</v>
+        <v>11.062</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.11</v>
+        <v>5.113</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.15</v>
+        <v>8.147</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.65</v>
+        <v>8.654999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>8.625</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.32</v>
+        <v>2.318</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.32</v>
+        <v>7.323</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.57</v>
+        <v>10.568</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>6.09</v>
@@ -810,52 +810,52 @@
         <v>0.67</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.095</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>106.73</v>
+        <v>106.725</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>20.58</v>
+        <v>20.579</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.66</v>
+        <v>6.658</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.72</v>
+        <v>13.721</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.86</v>
+        <v>7.862</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.01</v>
+        <v>1.009</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.19</v>
+        <v>14.193</v>
       </c>
       <c r="AA3" s="4" t="n">
         <v>5.51</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.41</v>
+        <v>6.413</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>5.94</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>8.952999999999999</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>22.19</v>
+        <v>22.192</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.22</v>
+        <v>4.224</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>8.365</v>
       </c>
     </row>
     <row r="4">
@@ -866,100 +866,100 @@
         <v>13.14</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.03</v>
+        <v>10.031</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.68</v>
+        <v>0.678</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>27.99</v>
+        <v>27.987</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>23.66</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.03</v>
+        <v>10.029</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>38.05</v>
+        <v>38.051</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>15.35</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.01</v>
+        <v>7.013</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.77</v>
+        <v>10.765</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.45</v>
+        <v>11.452</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.86</v>
+        <v>11.859</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.21</v>
+        <v>3.214</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.01</v>
+        <v>10.005</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14.43</v>
+        <v>14.435</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.35</v>
+        <v>8.349</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.511</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.23</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>146.94</v>
+        <v>146.937</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>28.09</v>
+        <v>28.088</v>
       </c>
       <c r="V4" s="4" t="n">
         <v>9.17</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>18.94</v>
+        <v>18.942</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.34</v>
+        <v>10.338</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>1.34</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>19.64</v>
+        <v>19.642</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.85</v>
+        <v>7.853</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.94</v>
+        <v>7.938</v>
       </c>
       <c r="AC4" s="4" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.02</v>
+        <v>12.015</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>34.18</v>
+        <v>34.181</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.54</v>
+        <v>5.536</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.5</v>
+        <v>11.502</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>10.69</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.07637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>24.95</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>20.94</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>129.88</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>25.06</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.96</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>32.27</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>10.28</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_45.xlsx
+++ b/DATA_goal/Junction_Flooding_45.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -967,88 +967,88 @@
         <v>40751.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.15</v>
+        <v>12.147</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.23</v>
+        <v>9.225</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.581</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.96</v>
+        <v>25.956</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>21.85</v>
+        <v>21.854</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.31</v>
+        <v>9.311</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>37.18</v>
+        <v>37.181</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.29</v>
+        <v>14.289</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.52</v>
+        <v>6.517</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.93</v>
+        <v>9.927</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.56</v>
+        <v>10.561</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>11.02</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.99</v>
+        <v>2.993</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>9.282999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.4</v>
+        <v>13.404</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.75</v>
+        <v>7.752</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.408</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.229</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>135.56</v>
+        <v>135.563</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>26.08</v>
+        <v>26.083</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.52</v>
+        <v>8.522</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>17.63</v>
+        <v>17.632</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>9.528</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.24</v>
+        <v>1.237</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.64</v>
+        <v>18.644</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.34</v>
+        <v>7.343</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.23</v>
+        <v>7.227</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.73</v>
+        <v>7.733</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>11.11</v>
@@ -1057,13 +1057,117 @@
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>33.49</v>
+        <v>33.495</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.1</v>
+        <v>5.097</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.69</v>
+        <v>10.686</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40751.07637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>20.94</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>129.88</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>25.06</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>16.96</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>32.27</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>10.28</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_45.xlsx
+++ b/DATA_goal/Junction_Flooding_45.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -967,88 +967,88 @@
         <v>40751.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.147</v>
+        <v>12.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.225</v>
+        <v>9.23</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.581</v>
+        <v>0.58</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.956</v>
+        <v>25.96</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>21.854</v>
+        <v>21.85</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.311</v>
+        <v>9.31</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>37.181</v>
+        <v>37.18</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.289</v>
+        <v>14.29</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.517</v>
+        <v>6.52</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.927</v>
+        <v>9.93</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.561</v>
+        <v>10.56</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>11.02</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.993</v>
+        <v>2.99</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.282999999999999</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.404</v>
+        <v>13.4</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.752</v>
+        <v>7.75</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.408</v>
+        <v>0.41</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.229</v>
+        <v>0.23</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>135.563</v>
+        <v>135.56</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>26.083</v>
+        <v>26.08</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.522</v>
+        <v>8.52</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>17.632</v>
+        <v>17.63</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.528</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.237</v>
+        <v>1.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.644</v>
+        <v>18.64</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.343</v>
+        <v>7.34</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.227</v>
+        <v>7.23</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.733</v>
+        <v>7.73</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>11.11</v>
@@ -1057,117 +1057,13 @@
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>33.495</v>
+        <v>33.49</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.097</v>
+        <v>5.1</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.686</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.07637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>24.95</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>20.94</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>129.88</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>25.06</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.96</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>32.27</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>10.28</v>
+        <v>10.69</v>
       </c>
     </row>
   </sheetData>
